--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Blitz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Blitz/GitHub/Gantt/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Semana</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>Actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APP DECORACIÓN DE INTERIORES REALIDAD AUMENTADA </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +128,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -158,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,11 +192,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -202,6 +250,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,23 +277,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:S19"/>
+  <dimension ref="A3:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,87 +577,109 @@
     <col min="5" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
+    </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>3</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>4</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>5</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>6</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>7</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>8</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>9</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="11">
         <v>10</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="11">
         <v>11</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="11">
         <v>12</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>13</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -628,7 +707,7 @@
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -656,7 +735,7 @@
       <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -684,7 +763,7 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -712,7 +791,7 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -740,7 +819,7 @@
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -768,12 +847,12 @@
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -790,16 +869,16 @@
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+      <c r="A13" s="13">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>42429</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>42433</v>
       </c>
       <c r="E13" s="2"/>
@@ -818,16 +897,16 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="12">
         <v>8</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="10">
         <v>42436</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <v>42440</v>
       </c>
       <c r="E14" s="2"/>
@@ -846,16 +925,16 @@
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="10">
         <v>42443</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="10">
         <v>42447</v>
       </c>
       <c r="E15" s="2"/>
@@ -874,16 +953,16 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>42458</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>42461</v>
       </c>
       <c r="E16" s="2"/>
@@ -902,16 +981,16 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+      <c r="A17" s="13">
         <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="10">
         <v>42464</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>42468</v>
       </c>
       <c r="E17" s="2"/>
@@ -930,16 +1009,16 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>12</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="10">
         <v>42464</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>42468</v>
       </c>
       <c r="E18" s="2"/>
@@ -958,16 +1037,16 @@
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+      <c r="A19" s="13">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>42468</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>42475</v>
       </c>
       <c r="E19" s="2"/>
@@ -986,7 +1065,8 @@
       <c r="R19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A3:R3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A12:B12"/>
